--- a/final_output/mythicplus_tww.xlsx
+++ b/final_output/mythicplus_tww.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="89">
   <si>
     <t>Dungeon</t>
   </si>
@@ -78,21 +78,9 @@
     <t>Repulsive Visage</t>
   </si>
   <si>
-    <t>Enrage</t>
-  </si>
-  <si>
-    <t>Embrace Darkness</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
-    <t>NUKE</t>
-  </si>
-  <si>
-    <t>Droman's Wrath</t>
-  </si>
-  <si>
     <t>2nd trash</t>
   </si>
   <si>
@@ -105,12 +93,6 @@
     <t>Poisonous Discharge</t>
   </si>
   <si>
-    <t>Swirl</t>
-  </si>
-  <si>
-    <t>Crushing Leap</t>
-  </si>
-  <si>
     <t>Move Enemy</t>
   </si>
   <si>
@@ -123,15 +105,6 @@
     <t>Bramblethorn Coat</t>
   </si>
   <si>
-    <t>Purge Root</t>
-  </si>
-  <si>
-    <t>Bramblethorn Coat2</t>
-  </si>
-  <si>
-    <t>Nourish the Forest</t>
-  </si>
-  <si>
     <t>2nd boss</t>
   </si>
   <si>
@@ -162,63 +135,24 @@
     <t>Stimulate Resistance</t>
   </si>
   <si>
-    <t>Acid Globule</t>
-  </si>
-  <si>
     <t>3rd boss</t>
   </si>
   <si>
-    <t>Parasitic Pacification</t>
-  </si>
-  <si>
-    <t>Save MC'd Ally</t>
-  </si>
-  <si>
-    <t>Parasitic Pacification2</t>
-  </si>
-  <si>
-    <t>Parasitic Incapacitation</t>
-  </si>
-  <si>
-    <t>Parasitic Incapacitation2</t>
-  </si>
-  <si>
-    <t>Parasitic Domination</t>
-  </si>
-  <si>
     <t>Spread</t>
   </si>
   <si>
-    <t>Mind Link</t>
-  </si>
-  <si>
     <t>Adds</t>
   </si>
   <si>
-    <t>Accelerated Incubation</t>
-  </si>
-  <si>
     <t>The Necrotic Wake</t>
   </si>
   <si>
-    <t>Watch Frontal</t>
-  </si>
-  <si>
     <t>Heaving Retch</t>
   </si>
   <si>
-    <t>CC WORM</t>
-  </si>
-  <si>
     <t>Carrion Eruption</t>
   </si>
   <si>
-    <t>ALL DEFENSIVES</t>
-  </si>
-  <si>
-    <t>KICK</t>
-  </si>
-  <si>
     <t>Rasping Scream</t>
   </si>
   <si>
@@ -228,12 +162,6 @@
     <t>Dark Shroud</t>
   </si>
   <si>
-    <t>PURGE</t>
-  </si>
-  <si>
-    <t>Death Burst</t>
-  </si>
-  <si>
     <t>Move Out</t>
   </si>
   <si>
@@ -249,24 +177,9 @@
     <t>Necrotic Breath</t>
   </si>
   <si>
-    <t>Soothe</t>
-  </si>
-  <si>
-    <t>Unholy Frenzy</t>
-  </si>
-  <si>
-    <t>Land of the Dead</t>
-  </si>
-  <si>
     <t>Goresplatter</t>
   </si>
   <si>
-    <t>Fixate</t>
-  </si>
-  <si>
-    <t>Morbid Fixation</t>
-  </si>
-  <si>
     <t>Gut Slice</t>
   </si>
   <si>
@@ -282,12 +195,6 @@
     <t>Comet Storm</t>
   </si>
   <si>
-    <t>Exile</t>
-  </si>
-  <si>
-    <t>Dark Exile</t>
-  </si>
-  <si>
     <t>ZoneID</t>
   </si>
   <si>
@@ -324,9 +231,6 @@
     <t>Mass Tremor</t>
   </si>
   <si>
-    <t>Commanding Roar</t>
-  </si>
-  <si>
     <t>Molten Mace</t>
   </si>
   <si>
@@ -345,25 +249,40 @@
     <t>Knockback</t>
   </si>
   <si>
-    <t>Devouring Flame</t>
-  </si>
-  <si>
     <t>Invocation of Shadowflame</t>
   </si>
   <si>
-    <t>Add</t>
-  </si>
-  <si>
     <t>Shadow Gale</t>
   </si>
   <si>
-    <t>Hide</t>
-  </si>
-  <si>
     <t>Void Infusion</t>
   </si>
   <si>
-    <t>Dodge Airstrikes</t>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Coalescing Poison</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>Acid Nova</t>
+  </si>
+  <si>
+    <t>Purge Massroot</t>
+  </si>
+  <si>
+    <t>Stop the Worm</t>
+  </si>
+  <si>
+    <t>Purge Miniboss</t>
+  </si>
+  <si>
+    <t>Big Defensive</t>
+  </si>
+  <si>
+    <t>Find Safespot</t>
   </si>
 </sst>
 </file>
@@ -424,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -453,6 +372,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,10 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -787,16 +708,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -819,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1">
         <v>321968</v>
@@ -828,7 +749,7 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -836,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>13335</v>
+        <v>13334</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -860,7 +781,7 @@
         <v>959842</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -868,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>13336</v>
+        <v>13334</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -880,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1">
-        <v>324909</v>
+        <v>324923</v>
       </c>
       <c r="I4" s="1">
         <v>-1</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -900,31 +821,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>13337</v>
-      </c>
-      <c r="C5" t="s">
+        <v>13334</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>324923</v>
-      </c>
-      <c r="I5">
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>324909</v>
+      </c>
+      <c r="I5" s="1">
         <v>-1</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -932,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13338</v>
+        <v>13334</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -956,7 +877,7 @@
         <v>-1</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -964,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>13339</v>
+        <v>13334</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -988,7 +909,7 @@
         <v>-1</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -996,10 +917,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>13340</v>
+        <v>13334</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -1007,20 +928,20 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1">
-        <v>323149</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>340160</v>
+      </c>
+      <c r="I8" s="4">
         <v>-1</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1028,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>13341</v>
+        <v>13334</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>323059</v>
+        <v>340189</v>
       </c>
       <c r="I9" s="4">
         <v>-1</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1060,10 +981,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>13342</v>
+        <v>13334</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2</v>
@@ -1075,7 +996,7 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>340300</v>
@@ -1084,7 +1005,7 @@
         <v>-1</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1092,10 +1013,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>13343</v>
+        <v>13334</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -1104,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>340160</v>
+        <v>340279</v>
       </c>
       <c r="I11" s="4">
         <v>-1</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1124,31 +1045,31 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>13344</v>
+        <v>13334</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
       </c>
       <c r="H12">
-        <v>340279</v>
+        <v>324776</v>
       </c>
       <c r="I12" s="4">
         <v>-1</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1156,31 +1077,31 @@
         <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>13345</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>13334</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13">
-        <v>340305</v>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="4">
+        <v>341709</v>
       </c>
       <c r="I13" s="4">
         <v>-1</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1188,31 +1109,31 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>13346</v>
+        <v>13334</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14">
-        <v>340189</v>
-      </c>
-      <c r="I14" s="4">
-        <v>-1</v>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1">
+        <v>321828</v>
+      </c>
+      <c r="I14" s="1">
+        <v>134470</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1220,31 +1141,31 @@
         <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>13347</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>13334</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15">
-        <v>324776</v>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="4">
+        <v>336499</v>
       </c>
       <c r="I15" s="4">
         <v>-1</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1252,31 +1173,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="1">
-        <v>13348</v>
+        <v>13334</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>324776</v>
+        <v>326046</v>
       </c>
       <c r="I16" s="4">
-        <v>136006</v>
+        <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1284,10 +1205,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="1">
-        <v>13349</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>13334</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2</v>
@@ -1295,20 +1216,20 @@
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="1">
-        <v>324914</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="F17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17">
+        <v>460092</v>
+      </c>
+      <c r="I17" s="4">
         <v>-1</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1316,138 +1237,138 @@
         <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>13351</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="5" t="s">
+        <v>13334</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>40</v>
+      <c r="F18" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="4">
-        <v>341709</v>
+        <v>81</v>
+      </c>
+      <c r="H18">
+        <v>463602</v>
       </c>
       <c r="I18" s="4">
         <v>-1</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="14" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
-        <v>13352</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>12917</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="1">
-        <v>321828</v>
-      </c>
-      <c r="I19" s="1">
-        <v>134470</v>
-      </c>
-      <c r="J19" t="s">
-        <v>92</v>
+      <c r="H19" s="14">
+        <v>320596</v>
+      </c>
+      <c r="I19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
-        <v>13353</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5" t="s">
+        <v>12917</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="4">
-        <v>336499</v>
+      <c r="H20">
+        <v>320631</v>
       </c>
       <c r="I20" s="4">
         <v>-1</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
-        <v>13354</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>12917</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="1">
-        <v>326046</v>
+      <c r="F21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21">
+        <v>320631</v>
       </c>
       <c r="I21" s="1">
-        <v>-1</v>
+        <v>136030</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
-        <v>13355</v>
+        <v>12917</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>2</v>
@@ -1455,31 +1376,31 @@
       <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="2">
-        <v>326021</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="F22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <v>324293</v>
+      </c>
+      <c r="I22" s="1">
         <v>-1</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
-        <v>13356</v>
+        <v>12917</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
@@ -1487,127 +1408,127 @@
       <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="2">
-        <v>337235</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23">
+        <v>324323</v>
+      </c>
+      <c r="I23" s="4">
         <v>-1</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
-        <v>13357</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
+        <v>12917</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="1">
-        <v>337235</v>
-      </c>
-      <c r="I24" s="1">
-        <v>656595</v>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24">
+        <v>335141</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2576096</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
-        <v>13358</v>
+        <v>12917</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="2">
-        <v>337249</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="F25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25">
+        <v>335141</v>
+      </c>
+      <c r="I25" s="4">
         <v>-1</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
-        <v>13359</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>12917</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="1">
-        <v>337249</v>
-      </c>
-      <c r="I26" s="1">
-        <v>656595</v>
+      <c r="H26">
+        <v>324372</v>
+      </c>
+      <c r="I26" s="4">
+        <v>-1</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1">
-        <v>13360</v>
+        <v>12917</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>2</v>
@@ -1615,63 +1536,63 @@
       <c r="E27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="2">
-        <v>337255</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="F27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>324387</v>
+      </c>
+      <c r="I27" s="4">
         <v>-1</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
-        <v>13361</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>8</v>
+        <v>12917</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="1">
-        <v>337255</v>
-      </c>
-      <c r="I28" s="1">
-        <v>656595</v>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28">
+        <v>333488</v>
+      </c>
+      <c r="I28" s="4">
+        <v>-1</v>
       </c>
       <c r="J28" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
-        <v>13362</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>12917</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>2</v>
@@ -1679,63 +1600,63 @@
       <c r="E29" s="2">
         <v>0</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="1">
-        <v>322614</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="F29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29">
+        <v>338353</v>
+      </c>
+      <c r="I29" s="4">
         <v>-1</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="6">
-        <v>13364</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="9">
-        <v>322550</v>
-      </c>
-      <c r="I30" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>92</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1">
+        <v>12917</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30">
+        <v>338353</v>
+      </c>
+      <c r="I30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
         <v>12917</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>2</v>
@@ -1743,917 +1664,327 @@
       <c r="E31" s="2">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="1">
-        <v>320596</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="F31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31">
+        <v>333477</v>
+      </c>
+      <c r="I31" s="4">
         <v>-1</v>
       </c>
       <c r="J31" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
-        <v>12918</v>
+        <v>12917</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H32">
-        <v>320631</v>
+        <v>322681</v>
       </c>
       <c r="I32" s="4">
         <v>-1</v>
       </c>
       <c r="J32" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1">
-        <v>12919</v>
+        <v>12917</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H33">
-        <v>320631</v>
-      </c>
-      <c r="I33" s="1">
-        <v>136030</v>
+        <v>320772</v>
+      </c>
+      <c r="I33" s="4">
+        <v>-1</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="1">
-        <v>12920</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="6">
+        <v>12917</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H34">
-        <v>324293</v>
-      </c>
-      <c r="I34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>92</v>
+      <c r="H34" s="9">
+        <v>320788</v>
+      </c>
+      <c r="I34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="1">
-        <v>12921</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
+      <c r="A35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35">
+        <v>451939</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H35">
-        <v>324323</v>
-      </c>
-      <c r="I35" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="1">
-        <v>12922</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
+      <c r="C36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H36">
-        <v>335141</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2576096</v>
+        <v>451871</v>
       </c>
       <c r="J36" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="1">
-        <v>12923</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
+      <c r="A37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H37">
-        <v>335141</v>
-      </c>
-      <c r="I37" s="4">
-        <v>-1</v>
+        <v>447395</v>
       </c>
       <c r="J37" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="1">
-        <v>12924</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
+      <c r="A38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
         <v>71</v>
       </c>
       <c r="H38">
-        <v>345623</v>
-      </c>
-      <c r="I38" s="4">
-        <v>-1</v>
+        <v>449687</v>
       </c>
       <c r="J38" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="1">
-        <v>12925</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
+      <c r="A39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39">
-        <v>324372</v>
-      </c>
-      <c r="I39" s="4">
-        <v>-1</v>
+        <v>451387</v>
       </c>
       <c r="J39" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="1">
-        <v>12926</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0</v>
+      <c r="A40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H40">
-        <v>324387</v>
-      </c>
-      <c r="I40" s="4">
-        <v>-1</v>
+        <v>456751</v>
       </c>
       <c r="J40" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="1">
-        <v>12927</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
+      <c r="A41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41">
-        <v>333488</v>
-      </c>
-      <c r="I41" s="4">
-        <v>-1</v>
+        <v>448013</v>
       </c>
       <c r="J41" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="1">
-        <v>12928</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
+      <c r="A42" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s">
         <v>78</v>
       </c>
       <c r="H42">
-        <v>320012</v>
-      </c>
-      <c r="I42" s="4">
-        <v>136224</v>
+        <v>449939</v>
       </c>
       <c r="J42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="1">
-        <v>12929</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H43">
-        <v>321226</v>
-      </c>
-      <c r="I43" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>92</v>
+      <c r="H43" s="9">
+        <v>450088</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="1">
-        <v>12930</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" t="s">
-        <v>80</v>
-      </c>
-      <c r="H44">
-        <v>338353</v>
-      </c>
-      <c r="I44" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="1">
-        <v>12931</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45">
-        <v>338606</v>
-      </c>
-      <c r="I45" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="1">
-        <v>12932</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" t="s">
-        <v>83</v>
-      </c>
-      <c r="H46">
-        <v>333477</v>
-      </c>
-      <c r="I46" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="1">
-        <v>12933</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47">
-        <v>322681</v>
-      </c>
-      <c r="I47" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="1">
-        <v>12934</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48">
-        <v>343556</v>
-      </c>
-      <c r="I48" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="1">
-        <v>12935</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>87</v>
-      </c>
-      <c r="H49">
-        <v>320772</v>
-      </c>
-      <c r="I49" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="1">
-        <v>12936</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s">
-        <v>98</v>
-      </c>
-      <c r="H50">
-        <v>320788</v>
-      </c>
-      <c r="I50" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A51" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="6">
-        <v>12937</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="8">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H51" s="9">
-        <v>321894</v>
-      </c>
-      <c r="I51" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" t="s">
-        <v>100</v>
-      </c>
-      <c r="H52">
-        <v>451939</v>
-      </c>
-      <c r="J52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G53" t="s">
-        <v>101</v>
-      </c>
-      <c r="H53">
-        <v>451871</v>
-      </c>
-      <c r="J53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54">
-        <v>448847</v>
-      </c>
-      <c r="J54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G55" t="s">
-        <v>103</v>
-      </c>
-      <c r="H55">
-        <v>449687</v>
-      </c>
-      <c r="J55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" t="s">
-        <v>105</v>
-      </c>
-      <c r="H56">
-        <v>447395</v>
-      </c>
-      <c r="J56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>106</v>
-      </c>
-      <c r="H57">
-        <v>451387</v>
-      </c>
-      <c r="J57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G58" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58">
-        <v>456751</v>
-      </c>
-      <c r="J58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" t="s">
-        <v>109</v>
-      </c>
-      <c r="H59">
-        <v>448105</v>
-      </c>
-      <c r="J59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G60" t="s">
-        <v>110</v>
-      </c>
-      <c r="H60">
-        <v>448013</v>
-      </c>
-      <c r="J60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G61" t="s">
-        <v>112</v>
-      </c>
-      <c r="H61">
-        <v>449939</v>
-      </c>
-      <c r="J61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A62" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H62" s="9">
-        <v>450088</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="4"/>
+      <c r="A44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
